--- a/biology/Botanique/Acacia_catenulata/Acacia_catenulata.xlsx
+++ b/biology/Botanique/Acacia_catenulata/Acacia_catenulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia catenulata est un arbre de 15 mètres de haut de la famille des Mimosaceae, ou des Fabaceae selon la classification phylogénétique. Il est originaire du Queensland, en Australie.
 Il fait partie des acacias du groupe des mulga, mais son écorce est plus sombre et son aspect moins régulier que les autres acacias.
